--- a/TablicaNamirnica.xlsx
+++ b/TablicaNamirnica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\FAKULTET 5\1.semestar\Linearna optimizacija\Seminar\Seminar5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\DietProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C4B53B-9480-4D90-BBBC-3A5081C9F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B4820-A9B3-4B54-9F5A-9B8904BD5610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1855,8 +1855,8 @@
   <dimension ref="A1:P226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6243,6 +6243,9 @@
       </c>
       <c r="E88">
         <v>1.35</v>
+      </c>
+      <c r="F88">
+        <v>270</v>
       </c>
       <c r="G88">
         <v>6.8</v>

--- a/TablicaNamirnica.xlsx
+++ b/TablicaNamirnica.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\DietProblem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B4820-A9B3-4B54-9F5A-9B8904BD5610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -828,9 +822,6 @@
     <t>https://podravkaiovariations.azureedge.net/56e48a64-498c-11ea-a7bb-5200a71caea1/v/9ed607bc-4c1b-11ea-9bb0-92f307bc0925/450x600-9ed6ed4e-4c1b-11ea-9140-92f307bc0925.png</t>
   </si>
   <si>
-    <t>https://storage.bljesak.info/article/148290/1280x880/mljeveno-meso-tanjur.jpg</t>
-  </si>
-  <si>
     <t>https://images-popusti.njuskalo.hr/data/image/500x705/2507/piko-parizer-pik-vrbovec-400g-plodine-12533717.jpg</t>
   </si>
   <si>
@@ -897,15 +888,9 @@
     <t>https://media.kaufland.com/images/PPIM/AP_Content_1010/std.lang.all/83/30/Asset_818330.jpg</t>
   </si>
   <si>
-    <t>https://hr.cook-and-food.com/images/116/116424/fc98ab1475cb016bae71b8d35fbc3bc2.jpg</t>
-  </si>
-  <si>
     <t>https://womanexpertus.com/wp-content/uploads/2018/05/Ryba-shuka-800x600.jpg</t>
   </si>
   <si>
-    <t>https://storage.bljesak.info/article/15900/1280x880/bjelanjak-zdjela.jpg</t>
-  </si>
-  <si>
     <t>https://aura.ba/wp-content/uploads/2018/01/kosa-jaje.jpeg</t>
   </si>
   <si>
@@ -1005,9 +990,6 @@
     <t>https://2.bp.blogspot.com/-ZALimvswbd8/V5-rUy36nxI/AAAAAAAAVdI/-qc6PmA94TEqqQioaMySraRH0BoplmSbgCPcB/s1600/IMG_5338-blog-zanetti-mascarpone.jpg</t>
   </si>
   <si>
-    <t>https://dukatshop.hr/980-thickbox_default/dukat-tekuci-jogurt-28-mm-330-g.jpg</t>
-  </si>
-  <si>
     <t>https://best-diy-site.com/img/6708541/salat-latuk-virashivanie.jpg</t>
   </si>
   <si>
@@ -1359,9 +1341,6 @@
     <t>https://zdravija.com/wp-content/uploads/2018/08/Maple-Syrup-1.jpeg</t>
   </si>
   <si>
-    <t>https://storage.bljesak.info/article/175377/1280x880/med-med.jpg</t>
-  </si>
-  <si>
     <t>https://raport.ba/wp-content/uploads/2021/02/nutella.jpg</t>
   </si>
   <si>
@@ -1392,9 +1371,6 @@
     <t>https://www.adiva.hr/wp-content/uploads/2019/01/sladoled-760x525.jpg</t>
   </si>
   <si>
-    <t>https://www.travelmagazine.rs/wp-content/uploads/2020/02/background-candy-card-chocolate-chocolates-concept-1567169-pxhere.com_.jpg</t>
-  </si>
-  <si>
     <t>https://www.koestlin.hr/img/products/Koestlin-SlanoTrajno-SaltasSlani-90.png</t>
   </si>
   <si>
@@ -1416,9 +1392,6 @@
     <t>https://d3d173w0vohr0k.cloudfront.net/ba-ba/products/2e/581ed9441945138c495d4eef0f3ce2/corn-standard-425mlv2.png</t>
   </si>
   <si>
-    <t>https://jatrgovac.com/usdocs/kozje-mlijeko.jpg</t>
-  </si>
-  <si>
     <t>https://mimi.ba/wp-content/uploads/2020/12/Kefir-2.8mm-330gr-Meggle.jpg</t>
   </si>
   <si>
@@ -1450,12 +1423,33 @@
   </si>
   <si>
     <t>Klementina</t>
+  </si>
+  <si>
+    <t>https://static.hayat.ba/2019/12/mljeveno-meso-2.jpg</t>
+  </si>
+  <si>
+    <t>https://sasina-kuhinja.com/wp-content/uploads/2020/12/skampi_sasina_kuhinja_recepti.jpg</t>
+  </si>
+  <si>
+    <t>https://i2.wp.com/syl.ru/misc/i/ai/202416/903117.jpg</t>
+  </si>
+  <si>
+    <t>https://znakovi.hgk.hr/wp-content/uploads/2015/11/Vindija_kozje-05-i-02L-za-PR-480x336.jpg</t>
+  </si>
+  <si>
+    <t>https://patrologija.com/wp-content/uploads/2020/07/133924470.jpg</t>
+  </si>
+  <si>
+    <t>https://image.dnevnik.hr/media/images/920x695/Sep2018/61560275-cokolada.jpg</t>
+  </si>
+  <si>
+    <t>https://www.meggle.rs/_products/d342913294726cd5bb40bfa7932e5355.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _k_n"/>
   </numFmts>
@@ -1550,7 +1544,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperveza" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1851,34 +1845,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P144" sqref="P144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1978,7 +1972,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.6">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6">
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2072,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6">
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6">
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2178,7 +2172,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6">
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6">
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6">
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6">
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6">
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6">
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6">
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6">
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6">
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6">
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6">
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6">
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2925,10 +2919,10 @@
         <v>16</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.6">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2975,10 +2969,10 @@
         <v>16</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3025,10 +3019,10 @@
         <v>37</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3075,10 +3069,10 @@
         <v>37</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3125,10 +3119,10 @@
         <v>37</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.6">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3175,10 +3169,10 @@
         <v>37</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3225,10 +3219,10 @@
         <v>37</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3275,10 +3269,10 @@
         <v>37</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3325,10 +3319,10 @@
         <v>37</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3375,10 +3369,10 @@
         <v>37</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -3425,10 +3419,10 @@
         <v>37</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3475,10 +3469,10 @@
         <v>37</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3525,10 +3519,10 @@
         <v>37</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3575,10 +3569,10 @@
         <v>37</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3625,10 +3619,10 @@
         <v>37</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3675,10 +3669,10 @@
         <v>37</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3725,10 +3719,10 @@
         <v>37</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3775,10 +3769,10 @@
         <v>37</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3825,10 +3819,10 @@
         <v>37</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3875,10 +3869,10 @@
         <v>37</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3925,10 +3919,10 @@
         <v>37</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3975,10 +3969,10 @@
         <v>37</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4025,10 +4019,10 @@
         <v>37</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4075,10 +4069,10 @@
         <v>37</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4125,10 +4119,10 @@
         <v>37</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4175,10 +4169,10 @@
         <v>37</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4225,12 +4219,12 @@
         <v>37</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B48" s="2">
         <v>52</v>
@@ -4275,10 +4269,10 @@
         <v>62</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.6">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -4325,10 +4319,10 @@
         <v>62</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -4375,10 +4369,10 @@
         <v>62</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -4425,10 +4419,10 @@
         <v>62</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4475,10 +4469,10 @@
         <v>62</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4525,10 +4519,10 @@
         <v>62</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4575,10 +4569,10 @@
         <v>62</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4625,10 +4619,10 @@
         <v>70</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -4675,10 +4669,10 @@
         <v>70</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -4725,10 +4719,10 @@
         <v>70</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -4775,10 +4769,10 @@
         <v>70</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -4825,10 +4819,10 @@
         <v>70</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -4875,10 +4869,10 @@
         <v>70</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -4925,10 +4919,10 @@
         <v>70</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -4975,10 +4969,10 @@
         <v>70</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -5025,10 +5019,10 @@
         <v>70</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -5075,10 +5069,10 @@
         <v>70</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -5125,10 +5119,10 @@
         <v>70</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -5175,10 +5169,10 @@
         <v>70</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5225,10 +5219,10 @@
         <v>70</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15.6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -5275,10 +5269,10 @@
         <v>70</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="15.6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5325,10 +5319,10 @@
         <v>70</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="15.6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -5375,10 +5369,10 @@
         <v>70</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="15.6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -5425,10 +5419,10 @@
         <v>70</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="15.6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -5475,10 +5469,10 @@
         <v>70</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="15.6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -5525,10 +5519,10 @@
         <v>70</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="15.6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -5575,10 +5569,10 @@
         <v>70</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="15.6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -5625,10 +5619,10 @@
         <v>70</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="15.6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -5675,10 +5669,10 @@
         <v>70</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="15.6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -5725,10 +5719,10 @@
         <v>70</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="15.6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -5775,10 +5769,10 @@
         <v>70</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15.6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -5825,10 +5819,10 @@
         <v>70</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="15.6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -5875,10 +5869,10 @@
         <v>70</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="15.6">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -5925,10 +5919,10 @@
         <v>70</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="15.6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -5975,10 +5969,10 @@
         <v>70</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15.6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -6025,10 +6019,10 @@
         <v>70</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="15.6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -6075,10 +6069,10 @@
         <v>70</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="15.6">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -6125,10 +6119,10 @@
         <v>70</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="15.6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -6175,10 +6169,10 @@
         <v>70</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="15.6">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -6225,10 +6219,10 @@
         <v>103</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="15.6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -6275,10 +6269,10 @@
         <v>103</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="15.6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -6325,10 +6319,10 @@
         <v>103</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15.6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -6375,10 +6369,10 @@
         <v>103</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="15.6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -6425,10 +6419,10 @@
         <v>103</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="15.6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -6475,10 +6469,10 @@
         <v>103</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="15.6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -6525,10 +6519,10 @@
         <v>103</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="15.6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6575,10 +6569,10 @@
         <v>103</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="15.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -6625,10 +6619,10 @@
         <v>103</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15.6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6675,10 +6669,10 @@
         <v>103</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="15.6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -6725,10 +6719,10 @@
         <v>103</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="15.6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6775,10 +6769,10 @@
         <v>103</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="15.6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -6825,10 +6819,10 @@
         <v>103</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="15.6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6875,10 +6869,10 @@
         <v>103</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="15.6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -6925,10 +6919,10 @@
         <v>103</v>
       </c>
       <c r="P101" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="15.6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6975,10 +6969,10 @@
         <v>103</v>
       </c>
       <c r="P102" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="15.6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="15.75">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -7025,10 +7019,10 @@
         <v>103</v>
       </c>
       <c r="P103" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="15.6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="15.75">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -7075,10 +7069,10 @@
         <v>103</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="15.6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="15.75">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -7125,10 +7119,10 @@
         <v>103</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="15.6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="15.75">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -7175,10 +7169,10 @@
         <v>103</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="15.6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="15.75">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -7225,10 +7219,10 @@
         <v>103</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="15.6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="15.75">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -7275,10 +7269,10 @@
         <v>103</v>
       </c>
       <c r="P108" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="15.6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="15.75">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -7325,10 +7319,10 @@
         <v>103</v>
       </c>
       <c r="P109" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" ht="15.6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="15.75">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -7375,10 +7369,10 @@
         <v>103</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="15.6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="15.75">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7425,10 +7419,10 @@
         <v>103</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="15.6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="15.75">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -7475,10 +7469,10 @@
         <v>103</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="15.6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15.75">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -7525,10 +7519,10 @@
         <v>103</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="15.6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="15.75">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -7575,10 +7569,10 @@
         <v>103</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" ht="15.6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="15.75">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -7625,10 +7619,10 @@
         <v>103</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="15.6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="15.75">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -7675,10 +7669,10 @@
         <v>103</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="15.6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="15.75">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -7725,10 +7719,10 @@
         <v>103</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="15.6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15.75">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -7775,10 +7769,10 @@
         <v>103</v>
       </c>
       <c r="P118" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="15.6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15.75">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -7825,10 +7819,10 @@
         <v>103</v>
       </c>
       <c r="P119" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="15.6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="15.75">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -7875,10 +7869,10 @@
         <v>103</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="15.6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15.75">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -7925,10 +7919,10 @@
         <v>103</v>
       </c>
       <c r="P121" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="15.6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="15.75">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -7975,10 +7969,10 @@
         <v>103</v>
       </c>
       <c r="P122" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="15.6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15.75">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -8025,10 +8019,10 @@
         <v>103</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="15.6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="15.75">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -8075,10 +8069,10 @@
         <v>103</v>
       </c>
       <c r="P124" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="15.6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15.75">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -8125,10 +8119,10 @@
         <v>142</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="15.6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="15.75">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -8175,10 +8169,10 @@
         <v>142</v>
       </c>
       <c r="P126" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="15.6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15.75">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -8225,10 +8219,10 @@
         <v>142</v>
       </c>
       <c r="P127" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="15.6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="15.75">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -8275,10 +8269,10 @@
         <v>142</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="15.6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="15.75">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -8325,10 +8319,10 @@
         <v>142</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="15.6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="15.75">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -8375,10 +8369,10 @@
         <v>142</v>
       </c>
       <c r="P130" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="15.6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="15.75">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -8425,10 +8419,10 @@
         <v>142</v>
       </c>
       <c r="P131" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="15.6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="15.75">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -8475,10 +8469,10 @@
         <v>142</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="15.6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="15.75">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -8525,10 +8519,10 @@
         <v>142</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="15.6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="15.75">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -8575,10 +8569,10 @@
         <v>142</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="15.6">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="15.75">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -8625,10 +8619,10 @@
         <v>142</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="15.6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="15.75">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -8675,10 +8669,10 @@
         <v>142</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="15.6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="15.75">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -8725,10 +8719,10 @@
         <v>142</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="15.6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="15.75">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -8775,10 +8769,10 @@
         <v>142</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="15.6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="15.75">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -8825,10 +8819,10 @@
         <v>142</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="15.6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="15.75">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -8875,10 +8869,10 @@
         <v>142</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="15.6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="15.75">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -8925,10 +8919,10 @@
         <v>142</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="15.6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="15.75">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -8975,10 +8969,10 @@
         <v>142</v>
       </c>
       <c r="P142" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="15.6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="15.75">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -9025,10 +9019,10 @@
         <v>142</v>
       </c>
       <c r="P143" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="15.6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="15.75">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -9075,10 +9069,10 @@
         <v>142</v>
       </c>
       <c r="P144" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="15.6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="15.75">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -9125,10 +9119,10 @@
         <v>142</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="15.6">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="15.75">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -9175,10 +9169,10 @@
         <v>142</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="15.6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="15.75">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -9225,10 +9219,10 @@
         <v>142</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="15.6">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="15.75">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -9275,10 +9269,10 @@
         <v>142</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="15.6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="15.75">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -9325,10 +9319,10 @@
         <v>142</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="15.6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="15.75">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -9375,10 +9369,10 @@
         <v>142</v>
       </c>
       <c r="P150" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="15.6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="15.75">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -9425,10 +9419,10 @@
         <v>142</v>
       </c>
       <c r="P151" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="15.6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="15.75">
       <c r="A152" t="s">
         <v>169</v>
       </c>
@@ -9475,10 +9469,10 @@
         <v>142</v>
       </c>
       <c r="P152" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="15.6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="15.75">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -9525,10 +9519,10 @@
         <v>142</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="15.6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="15.75">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -9575,10 +9569,10 @@
         <v>142</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="15.6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="15.75">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -9625,10 +9619,10 @@
         <v>173</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="15.6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="15.75">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -9675,10 +9669,10 @@
         <v>173</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="15.6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="15.75">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -9725,10 +9719,10 @@
         <v>173</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="15.6">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="15.75">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -9775,10 +9769,10 @@
         <v>173</v>
       </c>
       <c r="P158" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="15.6">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="15.75">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -9825,10 +9819,10 @@
         <v>173</v>
       </c>
       <c r="P159" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="15.6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="15.75">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -9875,10 +9869,10 @@
         <v>173</v>
       </c>
       <c r="P160" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="15.6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="15.75">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -9925,10 +9919,10 @@
         <v>173</v>
       </c>
       <c r="P161" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" ht="15.6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="15.75">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -9975,10 +9969,10 @@
         <v>173</v>
       </c>
       <c r="P162" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" ht="15.6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="15.75">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -10025,10 +10019,10 @@
         <v>173</v>
       </c>
       <c r="P163" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="15.6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="15.75">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -10075,10 +10069,10 @@
         <v>173</v>
       </c>
       <c r="P164" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="15.6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="15.75">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -10125,10 +10119,10 @@
         <v>173</v>
       </c>
       <c r="P165" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="15.6">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="15.75">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -10175,10 +10169,10 @@
         <v>173</v>
       </c>
       <c r="P166" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="15.6">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="15.75">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -10225,10 +10219,10 @@
         <v>173</v>
       </c>
       <c r="P167" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="15.6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="15.75">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -10275,10 +10269,10 @@
         <v>173</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="15.6">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="15.75">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -10325,12 +10319,12 @@
         <v>173</v>
       </c>
       <c r="P169" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="15.6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="15.75">
       <c r="A170" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B170">
         <v>47</v>
@@ -10375,10 +10369,10 @@
         <v>173</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="15.6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="15.75">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -10425,10 +10419,10 @@
         <v>173</v>
       </c>
       <c r="P171" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" ht="15.6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="15.75">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -10475,10 +10469,10 @@
         <v>173</v>
       </c>
       <c r="P172" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="15.6">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="15.75">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -10525,10 +10519,10 @@
         <v>173</v>
       </c>
       <c r="P173" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" ht="15.6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="15.75">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -10575,10 +10569,10 @@
         <v>173</v>
       </c>
       <c r="P174" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="15.6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="15.75">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -10625,10 +10619,10 @@
         <v>173</v>
       </c>
       <c r="P175" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" ht="15.6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="15.75">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -10675,10 +10669,10 @@
         <v>173</v>
       </c>
       <c r="P176" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="15.6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="15.75">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -10725,10 +10719,10 @@
         <v>173</v>
       </c>
       <c r="P177" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" ht="15.6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="15.75">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -10775,10 +10769,10 @@
         <v>173</v>
       </c>
       <c r="P178" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" ht="15.6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="15.75">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -10825,10 +10819,10 @@
         <v>173</v>
       </c>
       <c r="P179" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" ht="15.6">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="15.75">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -10875,10 +10869,10 @@
         <v>173</v>
       </c>
       <c r="P180" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" ht="15.6">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="15.75">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -10925,10 +10919,10 @@
         <v>173</v>
       </c>
       <c r="P181" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" ht="15.6">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="15.75">
       <c r="A182" t="s">
         <v>199</v>
       </c>
@@ -10975,10 +10969,10 @@
         <v>173</v>
       </c>
       <c r="P182" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" ht="15.6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="15.75">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -11025,10 +11019,10 @@
         <v>173</v>
       </c>
       <c r="P183" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" ht="15.6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="15.75">
       <c r="A184" t="s">
         <v>201</v>
       </c>
@@ -11075,10 +11069,10 @@
         <v>173</v>
       </c>
       <c r="P184" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" ht="15.6">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="15.75">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -11125,10 +11119,10 @@
         <v>173</v>
       </c>
       <c r="P185" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" ht="15.6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="15.75">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -11175,10 +11169,10 @@
         <v>173</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" ht="15.6">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="15.75">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -11225,10 +11219,10 @@
         <v>173</v>
       </c>
       <c r="P187" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" ht="15.6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="15.75">
       <c r="A188" t="s">
         <v>205</v>
       </c>
@@ -11275,10 +11269,10 @@
         <v>173</v>
       </c>
       <c r="P188" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" ht="15.6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="15.75">
       <c r="A189" t="s">
         <v>206</v>
       </c>
@@ -11325,10 +11319,10 @@
         <v>173</v>
       </c>
       <c r="P189" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" ht="15.6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="15.75">
       <c r="A190" t="s">
         <v>207</v>
       </c>
@@ -11375,10 +11369,10 @@
         <v>173</v>
       </c>
       <c r="P190" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" ht="15.6">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="15.75">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -11425,10 +11419,10 @@
         <v>209</v>
       </c>
       <c r="P191" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" ht="15.6">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="15.75">
       <c r="A192" t="s">
         <v>210</v>
       </c>
@@ -11475,10 +11469,10 @@
         <v>209</v>
       </c>
       <c r="P192" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" ht="15.6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="15.75">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -11525,10 +11519,10 @@
         <v>209</v>
       </c>
       <c r="P193" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" ht="15.6">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="15.75">
       <c r="A194" t="s">
         <v>212</v>
       </c>
@@ -11575,10 +11569,10 @@
         <v>209</v>
       </c>
       <c r="P194" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" ht="15.6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="15.75">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -11625,10 +11619,10 @@
         <v>209</v>
       </c>
       <c r="P195" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" ht="15.6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="15.75">
       <c r="A196" t="s">
         <v>214</v>
       </c>
@@ -11675,10 +11669,10 @@
         <v>209</v>
       </c>
       <c r="P196" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" ht="15.6">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" ht="15.75">
       <c r="A197" t="s">
         <v>215</v>
       </c>
@@ -11725,10 +11719,10 @@
         <v>216</v>
       </c>
       <c r="P197" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" ht="15.6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" ht="15.75">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -11775,10 +11769,10 @@
         <v>216</v>
       </c>
       <c r="P198" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" ht="15.6">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="15.75">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -11825,10 +11819,10 @@
         <v>216</v>
       </c>
       <c r="P199" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" ht="15.6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="15.75">
       <c r="A200" t="s">
         <v>219</v>
       </c>
@@ -11875,10 +11869,10 @@
         <v>216</v>
       </c>
       <c r="P200" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" ht="15.6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="15.75">
       <c r="A201" t="s">
         <v>220</v>
       </c>
@@ -11925,10 +11919,10 @@
         <v>216</v>
       </c>
       <c r="P201" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" ht="15.6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="15.75">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -11975,10 +11969,10 @@
         <v>222</v>
       </c>
       <c r="P202" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" ht="15.6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="15.75">
       <c r="A203" t="s">
         <v>223</v>
       </c>
@@ -12025,10 +12019,10 @@
         <v>222</v>
       </c>
       <c r="P203" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" ht="15.6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="15.75">
       <c r="A204" t="s">
         <v>224</v>
       </c>
@@ -12075,10 +12069,10 @@
         <v>222</v>
       </c>
       <c r="P204" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" ht="15.6">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="15.75">
       <c r="A205" t="s">
         <v>225</v>
       </c>
@@ -12125,10 +12119,10 @@
         <v>222</v>
       </c>
       <c r="P205" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" ht="15.6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="15.75">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -12175,10 +12169,10 @@
         <v>222</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" ht="15.6">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" ht="15.75">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -12225,10 +12219,10 @@
         <v>222</v>
       </c>
       <c r="P207" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" ht="15.6">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="15.75">
       <c r="A208" t="s">
         <v>228</v>
       </c>
@@ -12275,10 +12269,10 @@
         <v>222</v>
       </c>
       <c r="P208" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" ht="15.6">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" ht="15.75">
       <c r="A209" t="s">
         <v>229</v>
       </c>
@@ -12325,10 +12319,10 @@
         <v>222</v>
       </c>
       <c r="P209" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" ht="15.6">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="15.75">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -12375,10 +12369,10 @@
         <v>222</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" ht="15.6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="15.75">
       <c r="A211" t="s">
         <v>231</v>
       </c>
@@ -12425,10 +12419,10 @@
         <v>222</v>
       </c>
       <c r="P211" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" ht="15.6">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="15.75">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -12475,10 +12469,10 @@
         <v>222</v>
       </c>
       <c r="P212" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" ht="15.6">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="15.75">
       <c r="A213" t="s">
         <v>233</v>
       </c>
@@ -12525,10 +12519,10 @@
         <v>222</v>
       </c>
       <c r="P213" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" ht="15.6">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="15.75">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -12575,10 +12569,10 @@
         <v>222</v>
       </c>
       <c r="P214" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" ht="15.6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="15.75">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -12625,10 +12619,10 @@
         <v>222</v>
       </c>
       <c r="P215" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" ht="15.6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" ht="15.75">
       <c r="A216" t="s">
         <v>236</v>
       </c>
@@ -12675,10 +12669,10 @@
         <v>222</v>
       </c>
       <c r="P216" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" ht="15.6">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="15.75">
       <c r="A217" t="s">
         <v>237</v>
       </c>
@@ -12725,10 +12719,10 @@
         <v>222</v>
       </c>
       <c r="P217" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" ht="15.6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="15.75">
       <c r="A218" t="s">
         <v>238</v>
       </c>
@@ -12775,10 +12769,10 @@
         <v>222</v>
       </c>
       <c r="P218" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" ht="15.6">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="15.75">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -12825,10 +12819,10 @@
         <v>222</v>
       </c>
       <c r="P219" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" ht="15.6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="15.75">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -12875,10 +12869,10 @@
         <v>222</v>
       </c>
       <c r="P220" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" ht="15.6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="15.75">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -12925,10 +12919,10 @@
         <v>222</v>
       </c>
       <c r="P221" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" ht="15.6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="15.75">
       <c r="A222" t="s">
         <v>242</v>
       </c>
@@ -12975,10 +12969,10 @@
         <v>222</v>
       </c>
       <c r="P222" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" ht="15.6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="15.75">
       <c r="A223" t="s">
         <v>243</v>
       </c>
@@ -13025,10 +13019,10 @@
         <v>222</v>
       </c>
       <c r="P223" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" ht="15.6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="15.75">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -13075,10 +13069,10 @@
         <v>222</v>
       </c>
       <c r="P224" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" ht="15.6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" ht="15.75">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -13125,10 +13119,10 @@
         <v>222</v>
       </c>
       <c r="P225" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" ht="15.6">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" ht="15.75">
       <c r="A226" t="s">
         <v>246</v>
       </c>
@@ -13175,34 +13169,44 @@
         <v>222</v>
       </c>
       <c r="P226" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P21" r:id="rId1"/>
+    <hyperlink ref="P46" r:id="rId2"/>
+    <hyperlink ref="P48" r:id="rId3"/>
+    <hyperlink ref="P73" r:id="rId4"/>
+    <hyperlink ref="P212" r:id="rId5"/>
+    <hyperlink ref="P224" r:id="rId6"/>
+    <hyperlink ref="P86" r:id="rId7"/>
+    <hyperlink ref="P144" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TablicaNamirnica.xlsx
+++ b/TablicaNamirnica.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\DietProblem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB4AEB-C5E6-49BE-A571-93E778F61397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -1383,9 +1389,6 @@
     <t>http://www.centarzdravlja.hr/site/assets/files/11180/kivi_posuda.jpg</t>
   </si>
   <si>
-    <t>https://www.e-branjevka.si/productpics/40_1_nektarina-kg_1280x1024-md.jpg</t>
-  </si>
-  <si>
     <t>https://prirodnoizdravo.com/wp-content/uploads/2016/12/jaja-japanske-prepelice.jpg</t>
   </si>
   <si>
@@ -1444,12 +1447,15 @@
   </si>
   <si>
     <t>https://www.meggle.rs/_products/d342913294726cd5bb40bfa7932e5355.png</t>
+  </si>
+  <si>
+    <t>https://spiza.tommy.hr/media/cache/sylius_shop_api_2xLG/ff/6c/90f8c6d36779a9eaeb707c5ab750.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _k_n"/>
   </numFmts>
@@ -1544,7 +1550,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperveza" xfId="1" builtinId="8"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1845,34 +1851,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P144" sqref="P144"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:16" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2919,10 +2925,10 @@
         <v>16</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:16" ht="15.6">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75">
+    <row r="24" spans="1:16" ht="15.6">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75">
+    <row r="25" spans="1:16" ht="15.6">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3119,10 +3125,10 @@
         <v>37</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.6">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75">
+    <row r="27" spans="1:16" ht="15.6">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75">
+    <row r="28" spans="1:16" ht="15.6">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75">
+    <row r="29" spans="1:16" ht="15.6">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75">
+    <row r="30" spans="1:16" ht="15.6">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3369,10 +3375,10 @@
         <v>37</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:16" ht="15.6">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75">
+    <row r="33" spans="1:16" ht="15.6">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3522,7 +3528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75">
+    <row r="34" spans="1:16" ht="15.6">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75">
+    <row r="35" spans="1:16" ht="15.6">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75">
+    <row r="36" spans="1:16" ht="15.6">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75">
+    <row r="37" spans="1:16" ht="15.6">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75">
+    <row r="38" spans="1:16" ht="15.6">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75">
+    <row r="39" spans="1:16" ht="15.6">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3822,7 +3828,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75">
+    <row r="40" spans="1:16" ht="15.6">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75">
+    <row r="41" spans="1:16" ht="15.6">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75">
+    <row r="42" spans="1:16" ht="15.6">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75">
+    <row r="43" spans="1:16" ht="15.6">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75">
+    <row r="44" spans="1:16" ht="15.6">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75">
+    <row r="45" spans="1:16" ht="15.6">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75">
+    <row r="46" spans="1:16" ht="15.6">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4169,10 +4175,10 @@
         <v>37</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.6">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4222,9 +4228,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75">
+    <row r="48" spans="1:16" ht="15.6">
       <c r="A48" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B48" s="2">
         <v>52</v>
@@ -4269,10 +4275,10 @@
         <v>62</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.6">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75">
+    <row r="50" spans="1:16" ht="15.6">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75">
+    <row r="51" spans="1:16" ht="15.6">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75">
+    <row r="52" spans="1:16" ht="15.6">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75">
+    <row r="53" spans="1:16" ht="15.6">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4519,10 +4525,10 @@
         <v>62</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.6">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75">
+    <row r="55" spans="1:16" ht="15.6">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75">
+    <row r="56" spans="1:16" ht="15.6">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75">
+    <row r="57" spans="1:16" ht="15.6">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -4722,7 +4728,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75">
+    <row r="58" spans="1:16" ht="15.6">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75">
+    <row r="59" spans="1:16" ht="15.6">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75">
+    <row r="60" spans="1:16" ht="15.6">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75">
+    <row r="61" spans="1:16" ht="15.6">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -4922,7 +4928,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15.75">
+    <row r="62" spans="1:16" ht="15.6">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75">
+    <row r="63" spans="1:16" ht="15.6">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75">
+    <row r="64" spans="1:16" ht="15.6">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75">
+    <row r="65" spans="1:16" ht="15.6">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75">
+    <row r="66" spans="1:16" ht="15.6">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75">
+    <row r="67" spans="1:16" ht="15.6">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75">
+    <row r="68" spans="1:16" ht="15.6">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75">
+    <row r="69" spans="1:16" ht="15.6">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75">
+    <row r="70" spans="1:16" ht="15.6">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75">
+    <row r="71" spans="1:16" ht="15.6">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75">
+    <row r="72" spans="1:16" ht="15.6">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75">
+    <row r="73" spans="1:16" ht="15.6">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -5519,10 +5525,10 @@
         <v>70</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="15.75">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.6">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75">
+    <row r="75" spans="1:16" ht="15.6">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75">
+    <row r="76" spans="1:16" ht="15.6">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75">
+    <row r="77" spans="1:16" ht="15.6">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75">
+    <row r="78" spans="1:16" ht="15.6">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -5772,7 +5778,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75">
+    <row r="79" spans="1:16" ht="15.6">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15.75">
+    <row r="80" spans="1:16" ht="15.6">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -5869,10 +5875,10 @@
         <v>70</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="15.75">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.6">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15.75">
+    <row r="82" spans="1:16" ht="15.6">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75">
+    <row r="83" spans="1:16" ht="15.6">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15.75">
+    <row r="84" spans="1:16" ht="15.6">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -6069,10 +6075,10 @@
         <v>70</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="15.75">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.6">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15.75">
+    <row r="86" spans="1:16" ht="15.6">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -6169,10 +6175,10 @@
         <v>70</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="15.75">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.6">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75">
+    <row r="88" spans="1:16" ht="15.6">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -6272,7 +6278,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75">
+    <row r="89" spans="1:16" ht="15.6">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -6319,10 +6325,10 @@
         <v>103</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15.75">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15.6">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15.75">
+    <row r="91" spans="1:16" ht="15.6">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75">
+    <row r="92" spans="1:16" ht="15.6">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75">
+    <row r="93" spans="1:16" ht="15.6">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75">
+    <row r="94" spans="1:16" ht="15.6">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15.75">
+    <row r="95" spans="1:16" ht="15.6">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -6622,7 +6628,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15.75">
+    <row r="96" spans="1:16" ht="15.6">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15.75">
+    <row r="97" spans="1:16" ht="15.6">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15.75">
+    <row r="98" spans="1:16" ht="15.6">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -6772,7 +6778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75">
+    <row r="99" spans="1:16" ht="15.6">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -6822,7 +6828,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75">
+    <row r="100" spans="1:16" ht="15.6">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6872,7 +6878,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75">
+    <row r="101" spans="1:16" ht="15.6">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15.75">
+    <row r="102" spans="1:16" ht="15.6">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6972,7 +6978,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15.75">
+    <row r="103" spans="1:16" ht="15.6">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15.75">
+    <row r="104" spans="1:16" ht="15.6">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -7072,7 +7078,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75">
+    <row r="105" spans="1:16" ht="15.6">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15.75">
+    <row r="106" spans="1:16" ht="15.6">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -7172,7 +7178,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15.75">
+    <row r="107" spans="1:16" ht="15.6">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15.75">
+    <row r="108" spans="1:16" ht="15.6">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -7272,7 +7278,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75">
+    <row r="109" spans="1:16" ht="15.6">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -7322,7 +7328,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15.75">
+    <row r="110" spans="1:16" ht="15.6">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -7372,7 +7378,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15.75">
+    <row r="111" spans="1:16" ht="15.6">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7422,7 +7428,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15.75">
+    <row r="112" spans="1:16" ht="15.6">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -7472,7 +7478,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15.75">
+    <row r="113" spans="1:16" ht="15.6">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -7522,7 +7528,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15.75">
+    <row r="114" spans="1:16" ht="15.6">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15.75">
+    <row r="115" spans="1:16" ht="15.6">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -7622,7 +7628,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15.75">
+    <row r="116" spans="1:16" ht="15.6">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75">
+    <row r="117" spans="1:16" ht="15.6">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15.75">
+    <row r="118" spans="1:16" ht="15.6">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15.75">
+    <row r="119" spans="1:16" ht="15.6">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -7822,7 +7828,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15.75">
+    <row r="120" spans="1:16" ht="15.6">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15.75">
+    <row r="121" spans="1:16" ht="15.6">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15.75">
+    <row r="122" spans="1:16" ht="15.6">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15.75">
+    <row r="123" spans="1:16" ht="15.6">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15.75">
+    <row r="124" spans="1:16" ht="15.6">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15.75">
+    <row r="125" spans="1:16" ht="15.6">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -8122,7 +8128,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15.75">
+    <row r="126" spans="1:16" ht="15.6">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15.75">
+    <row r="127" spans="1:16" ht="15.6">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -8222,7 +8228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15.75">
+    <row r="128" spans="1:16" ht="15.6">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15.75">
+    <row r="129" spans="1:16" ht="15.6">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15.75">
+    <row r="130" spans="1:16" ht="15.6">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -8372,7 +8378,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15.75">
+    <row r="131" spans="1:16" ht="15.6">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15.75">
+    <row r="132" spans="1:16" ht="15.6">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15.75">
+    <row r="133" spans="1:16" ht="15.6">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15.75">
+    <row r="134" spans="1:16" ht="15.6">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15.75">
+    <row r="135" spans="1:16" ht="15.6">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -8622,7 +8628,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15.75">
+    <row r="136" spans="1:16" ht="15.6">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15.75">
+    <row r="137" spans="1:16" ht="15.6">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15.75">
+    <row r="138" spans="1:16" ht="15.6">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -8772,7 +8778,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15.75">
+    <row r="139" spans="1:16" ht="15.6">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -8822,7 +8828,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15.75">
+    <row r="140" spans="1:16" ht="15.6">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15.75">
+    <row r="141" spans="1:16" ht="15.6">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15.75">
+    <row r="142" spans="1:16" ht="15.6">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15.75">
+    <row r="143" spans="1:16" ht="15.6">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -9022,7 +9028,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15.75">
+    <row r="144" spans="1:16" ht="15.6">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15.75">
+    <row r="145" spans="1:16" ht="15.6">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -9122,7 +9128,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15.75">
+    <row r="146" spans="1:16" ht="15.6">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -9172,7 +9178,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15.75">
+    <row r="147" spans="1:16" ht="15.6">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15.75">
+    <row r="148" spans="1:16" ht="15.6">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15.75">
+    <row r="149" spans="1:16" ht="15.6">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -9322,7 +9328,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15.75">
+    <row r="150" spans="1:16" ht="15.6">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -9372,7 +9378,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15.75">
+    <row r="151" spans="1:16" ht="15.6">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15.75">
+    <row r="152" spans="1:16" ht="15.6">
       <c r="A152" t="s">
         <v>169</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15.75">
+    <row r="153" spans="1:16" ht="15.6">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -9522,7 +9528,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15.75">
+    <row r="154" spans="1:16" ht="15.6">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75">
+    <row r="155" spans="1:16" ht="15.6">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -9622,7 +9628,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15.75">
+    <row r="156" spans="1:16" ht="15.6">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15.75">
+    <row r="157" spans="1:16" ht="15.6">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -9722,7 +9728,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15.75">
+    <row r="158" spans="1:16" ht="15.6">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -9772,7 +9778,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15.75">
+    <row r="159" spans="1:16" ht="15.6">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -9822,7 +9828,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15.75">
+    <row r="160" spans="1:16" ht="15.6">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -9872,7 +9878,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15.75">
+    <row r="161" spans="1:16" ht="15.6">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -9922,7 +9928,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15.75">
+    <row r="162" spans="1:16" ht="15.6">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -9972,7 +9978,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15.75">
+    <row r="163" spans="1:16" ht="15.6">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -10022,7 +10028,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15.75">
+    <row r="164" spans="1:16" ht="15.6">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -10072,7 +10078,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15.75">
+    <row r="165" spans="1:16" ht="15.6">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -10119,10 +10125,10 @@
         <v>173</v>
       </c>
       <c r="P165" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="15.75">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="15.6">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -10172,7 +10178,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15.75">
+    <row r="167" spans="1:16" ht="15.6">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -10222,7 +10228,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15.75">
+    <row r="168" spans="1:16" ht="15.6">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -10272,7 +10278,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15.75">
+    <row r="169" spans="1:16" ht="15.6">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -10322,9 +10328,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15.75">
+    <row r="170" spans="1:16" ht="15.6">
       <c r="A170" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B170">
         <v>47</v>
@@ -10372,7 +10378,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15.75">
+    <row r="171" spans="1:16" ht="15.6">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -10422,7 +10428,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15.75">
+    <row r="172" spans="1:16" ht="15.6">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -10472,7 +10478,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15.75">
+    <row r="173" spans="1:16" ht="15.6">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -10522,7 +10528,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15.75">
+    <row r="174" spans="1:16" ht="15.6">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15.75">
+    <row r="175" spans="1:16" ht="15.6">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15.75">
+    <row r="176" spans="1:16" ht="15.6">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -10672,7 +10678,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15.75">
+    <row r="177" spans="1:16" ht="15.6">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -10722,7 +10728,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15.75">
+    <row r="178" spans="1:16" ht="15.6">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -10772,7 +10778,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15.75">
+    <row r="179" spans="1:16" ht="15.6">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15.75">
+    <row r="180" spans="1:16" ht="15.6">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -10872,7 +10878,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15.75">
+    <row r="181" spans="1:16" ht="15.6">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -10922,7 +10928,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15.75">
+    <row r="182" spans="1:16" ht="15.6">
       <c r="A182" t="s">
         <v>199</v>
       </c>
@@ -10969,10 +10975,10 @@
         <v>173</v>
       </c>
       <c r="P182" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" ht="15.75">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="15.6">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -11022,7 +11028,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15.75">
+    <row r="184" spans="1:16" ht="15.6">
       <c r="A184" t="s">
         <v>201</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15.75">
+    <row r="185" spans="1:16" ht="15.6">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -11122,7 +11128,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15.75">
+    <row r="186" spans="1:16" ht="15.6">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -11172,7 +11178,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15.75">
+    <row r="187" spans="1:16" ht="15.6">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -11219,10 +11225,10 @@
         <v>173</v>
       </c>
       <c r="P187" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" ht="15.75">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="15.6">
       <c r="A188" t="s">
         <v>205</v>
       </c>
@@ -11272,7 +11278,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15.75">
+    <row r="189" spans="1:16" ht="15.6">
       <c r="A189" t="s">
         <v>206</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15.75">
+    <row r="190" spans="1:16" ht="15.6">
       <c r="A190" t="s">
         <v>207</v>
       </c>
@@ -11372,7 +11378,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15.75">
+    <row r="191" spans="1:16" ht="15.6">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -11422,7 +11428,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15.75">
+    <row r="192" spans="1:16" ht="15.6">
       <c r="A192" t="s">
         <v>210</v>
       </c>
@@ -11472,7 +11478,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15.75">
+    <row r="193" spans="1:16" ht="15.6">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -11522,7 +11528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15.75">
+    <row r="194" spans="1:16" ht="15.6">
       <c r="A194" t="s">
         <v>212</v>
       </c>
@@ -11572,7 +11578,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15.75">
+    <row r="195" spans="1:16" ht="15.6">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15.75">
+    <row r="196" spans="1:16" ht="15.6">
       <c r="A196" t="s">
         <v>214</v>
       </c>
@@ -11672,7 +11678,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15.75">
+    <row r="197" spans="1:16" ht="15.6">
       <c r="A197" t="s">
         <v>215</v>
       </c>
@@ -11722,7 +11728,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15.75">
+    <row r="198" spans="1:16" ht="15.6">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -11772,7 +11778,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15.75">
+    <row r="199" spans="1:16" ht="15.6">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -11822,7 +11828,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15.75">
+    <row r="200" spans="1:16" ht="15.6">
       <c r="A200" t="s">
         <v>219</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15.75">
+    <row r="201" spans="1:16" ht="15.6">
       <c r="A201" t="s">
         <v>220</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15.75">
+    <row r="202" spans="1:16" ht="15.6">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -11972,7 +11978,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15.75">
+    <row r="203" spans="1:16" ht="15.6">
       <c r="A203" t="s">
         <v>223</v>
       </c>
@@ -12022,7 +12028,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15.75">
+    <row r="204" spans="1:16" ht="15.6">
       <c r="A204" t="s">
         <v>224</v>
       </c>
@@ -12072,7 +12078,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15.75">
+    <row r="205" spans="1:16" ht="15.6">
       <c r="A205" t="s">
         <v>225</v>
       </c>
@@ -12122,7 +12128,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15.75">
+    <row r="206" spans="1:16" ht="15.6">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -12172,7 +12178,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15.75">
+    <row r="207" spans="1:16" ht="15.6">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15.75">
+    <row r="208" spans="1:16" ht="15.6">
       <c r="A208" t="s">
         <v>228</v>
       </c>
@@ -12272,7 +12278,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15.75">
+    <row r="209" spans="1:16" ht="15.6">
       <c r="A209" t="s">
         <v>229</v>
       </c>
@@ -12322,7 +12328,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15.75">
+    <row r="210" spans="1:16" ht="15.6">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -12369,10 +12375,10 @@
         <v>222</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" ht="15.75">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="15.6">
       <c r="A211" t="s">
         <v>231</v>
       </c>
@@ -12419,10 +12425,10 @@
         <v>222</v>
       </c>
       <c r="P211" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" ht="15.75">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="15.6">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -12469,10 +12475,10 @@
         <v>222</v>
       </c>
       <c r="P212" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" ht="15.75">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="15.6">
       <c r="A213" t="s">
         <v>233</v>
       </c>
@@ -12522,7 +12528,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15.75">
+    <row r="214" spans="1:16" ht="15.6">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -12572,7 +12578,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15.75">
+    <row r="215" spans="1:16" ht="15.6">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -12622,7 +12628,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15.75">
+    <row r="216" spans="1:16" ht="15.6">
       <c r="A216" t="s">
         <v>236</v>
       </c>
@@ -12669,10 +12675,10 @@
         <v>222</v>
       </c>
       <c r="P216" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" ht="15.75">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="15.6">
       <c r="A217" t="s">
         <v>237</v>
       </c>
@@ -12722,7 +12728,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15.75">
+    <row r="218" spans="1:16" ht="15.6">
       <c r="A218" t="s">
         <v>238</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15.75">
+    <row r="219" spans="1:16" ht="15.6">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -12822,7 +12828,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15.75">
+    <row r="220" spans="1:16" ht="15.6">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15.75">
+    <row r="221" spans="1:16" ht="15.6">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -12922,7 +12928,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15.75">
+    <row r="222" spans="1:16" ht="15.6">
       <c r="A222" t="s">
         <v>242</v>
       </c>
@@ -12972,7 +12978,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15.75">
+    <row r="223" spans="1:16" ht="15.6">
       <c r="A223" t="s">
         <v>243</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15.75">
+    <row r="224" spans="1:16" ht="15.6">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -13069,10 +13075,10 @@
         <v>222</v>
       </c>
       <c r="P224" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" ht="15.75">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" ht="15.6">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15.75">
+    <row r="226" spans="1:16" ht="15.6">
       <c r="A226" t="s">
         <v>246</v>
       </c>
@@ -13174,39 +13180,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P21" r:id="rId1"/>
-    <hyperlink ref="P46" r:id="rId2"/>
-    <hyperlink ref="P48" r:id="rId3"/>
-    <hyperlink ref="P73" r:id="rId4"/>
-    <hyperlink ref="P212" r:id="rId5"/>
-    <hyperlink ref="P224" r:id="rId6"/>
-    <hyperlink ref="P86" r:id="rId7"/>
-    <hyperlink ref="P144" r:id="rId8"/>
+    <hyperlink ref="P21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P46" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P73" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P212" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P224" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P86" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P144" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P182" r:id="rId9" xr:uid="{E64E4917-D76F-41BC-B71A-61B3842374D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TablicaNamirnica.xlsx
+++ b/TablicaNamirnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\DietProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB4AEB-C5E6-49BE-A571-93E778F61397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D84-4DB7-47B1-A507-7C9F941D23E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="477">
   <si>
     <t>Naziv</t>
   </si>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>https://spiza.tommy.hr/media/cache/sylius_shop_api_2xLG/ff/6c/90f8c6d36779a9eaeb707c5ab750.jpg</t>
+  </si>
+  <si>
+    <t>6.00</t>
   </si>
 </sst>
 </file>
@@ -1457,13 +1460,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _k_n"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;kn&quot;;[Red]\-#,##0.00\ &quot;kn&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
@@ -1524,29 +1535,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperveza" xfId="1" builtinId="8"/>
@@ -1854,9 +1868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P182" sqref="P182"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1874,7 +1888,7 @@
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
     <col min="12" max="12" width="13.109375" customWidth="1"/>
     <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1918,7 +1932,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1968,8 +1982,8 @@
       <c r="M2">
         <v>100</v>
       </c>
-      <c r="N2" s="8">
-        <v>6</v>
+      <c r="N2" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
@@ -2018,7 +2032,7 @@
       <c r="M3">
         <v>100</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>5.45</v>
       </c>
       <c r="O3" t="s">
@@ -2068,8 +2082,8 @@
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="8">
-        <v>4.9989999999999997</v>
+      <c r="N4" s="9">
+        <v>4.99</v>
       </c>
       <c r="O4" t="s">
         <v>16</v>
@@ -2118,8 +2132,8 @@
       <c r="M5">
         <v>100</v>
       </c>
-      <c r="N5" s="8">
-        <v>2.5990000000000002</v>
+      <c r="N5" s="9">
+        <v>2.59</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -2168,8 +2182,8 @@
       <c r="M6">
         <v>100</v>
       </c>
-      <c r="N6" s="8">
-        <v>8.7479999999999993</v>
+      <c r="N6" s="9">
+        <v>8.75</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -2218,8 +2232,8 @@
       <c r="M7">
         <v>100</v>
       </c>
-      <c r="N7" s="8">
-        <v>1.9990000000000001</v>
+      <c r="N7" s="9">
+        <v>1.99</v>
       </c>
       <c r="O7" t="s">
         <v>16</v>
@@ -2268,7 +2282,7 @@
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="9">
         <v>4.4630000000000001</v>
       </c>
       <c r="O8" t="s">
@@ -2318,7 +2332,7 @@
       <c r="M9">
         <v>100</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <v>6.6</v>
       </c>
       <c r="O9" t="s">
@@ -2368,7 +2382,7 @@
       <c r="M10">
         <v>100</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="9">
         <v>4.5</v>
       </c>
       <c r="O10" t="s">
@@ -2418,7 +2432,7 @@
       <c r="M11">
         <v>100</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="9">
         <v>6.5</v>
       </c>
       <c r="O11" t="s">
@@ -2468,7 +2482,7 @@
       <c r="M12">
         <v>100</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>6</v>
       </c>
       <c r="O12" t="s">
@@ -2518,7 +2532,7 @@
       <c r="M13">
         <v>100</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="9">
         <v>7.5</v>
       </c>
       <c r="O13" t="s">
@@ -2568,7 +2582,7 @@
       <c r="M14">
         <v>100</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="9">
         <v>10.904999999999999</v>
       </c>
       <c r="O14" t="s">
@@ -2618,7 +2632,7 @@
       <c r="M15">
         <v>100</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="9">
         <v>9.9990000000000006</v>
       </c>
       <c r="O15" t="s">
@@ -2668,7 +2682,7 @@
       <c r="M16">
         <v>100</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="9">
         <v>6.9989999999999997</v>
       </c>
       <c r="O16" t="s">
@@ -2718,7 +2732,7 @@
       <c r="M17">
         <v>100</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="9">
         <v>3.33</v>
       </c>
       <c r="O17" t="s">
@@ -2768,7 +2782,7 @@
       <c r="M18">
         <v>100</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="9">
         <v>4.3710000000000004</v>
       </c>
       <c r="O18" t="s">
@@ -2818,7 +2832,7 @@
       <c r="M19">
         <v>100</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="9">
         <v>8.4990000000000006</v>
       </c>
       <c r="O19" t="s">
@@ -2868,7 +2882,7 @@
       <c r="M20">
         <v>100</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="9">
         <v>7.327</v>
       </c>
       <c r="O20" t="s">
@@ -2918,7 +2932,7 @@
       <c r="M21">
         <v>100</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="9">
         <v>4.4429999999999996</v>
       </c>
       <c r="O21" t="s">
@@ -2968,7 +2982,7 @@
       <c r="M22">
         <v>100</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="9">
         <v>1.899</v>
       </c>
       <c r="O22" t="s">
@@ -3018,7 +3032,7 @@
       <c r="M23" s="2">
         <v>100</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="9">
         <v>10.332000000000001</v>
       </c>
       <c r="O23" t="s">
@@ -3068,7 +3082,7 @@
       <c r="M24" s="2">
         <v>100</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="9">
         <v>7.9969999999999999</v>
       </c>
       <c r="O24" t="s">
@@ -3118,7 +3132,7 @@
       <c r="M25" s="2">
         <v>100</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="9">
         <v>9.9990000000000006</v>
       </c>
       <c r="O25" t="s">
@@ -3168,7 +3182,7 @@
       <c r="M26" s="2">
         <v>100</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="9">
         <v>1.9990000000000001</v>
       </c>
       <c r="O26" t="s">
@@ -3218,7 +3232,7 @@
       <c r="M27" s="2">
         <v>100</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="9">
         <v>23.98</v>
       </c>
       <c r="O27" t="s">
@@ -3268,7 +3282,7 @@
       <c r="M28" s="2">
         <v>100</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="9">
         <v>6.9989999999999997</v>
       </c>
       <c r="O28" t="s">
@@ -3318,7 +3332,7 @@
       <c r="M29" s="2">
         <v>100</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="9">
         <v>66.599999999999994</v>
       </c>
       <c r="O29" t="s">
@@ -3368,7 +3382,7 @@
       <c r="M30" s="2">
         <v>100</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="9">
         <v>62</v>
       </c>
       <c r="O30" t="s">
@@ -3418,7 +3432,7 @@
       <c r="M31" s="2">
         <v>100</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="9">
         <v>10.685</v>
       </c>
       <c r="O31" t="s">
@@ -3468,7 +3482,7 @@
       <c r="M32" s="2">
         <v>100</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="9">
         <v>13.247999999999999</v>
       </c>
       <c r="O32" t="s">
@@ -3518,7 +3532,7 @@
       <c r="M33" s="2">
         <v>100</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="9">
         <v>9.8640000000000008</v>
       </c>
       <c r="O33" t="s">
@@ -3568,7 +3582,7 @@
       <c r="M34" s="2">
         <v>100</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="9">
         <v>12.999000000000001</v>
       </c>
       <c r="O34" t="s">
@@ -3618,7 +3632,7 @@
       <c r="M35" s="2">
         <v>100</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="9">
         <v>20.975000000000001</v>
       </c>
       <c r="O35" t="s">
@@ -3668,7 +3682,7 @@
       <c r="M36" s="2">
         <v>100</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="9">
         <v>13.996</v>
       </c>
       <c r="O36" t="s">
@@ -3718,7 +3732,7 @@
       <c r="M37">
         <v>100</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="9">
         <v>7.0990000000000002</v>
       </c>
       <c r="O37" t="s">
@@ -3768,7 +3782,7 @@
       <c r="M38">
         <v>100</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="9">
         <v>6.798</v>
       </c>
       <c r="O38" t="s">
@@ -3818,7 +3832,7 @@
       <c r="M39">
         <v>100</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="9">
         <v>5.33</v>
       </c>
       <c r="O39" t="s">
@@ -3868,7 +3882,7 @@
       <c r="M40">
         <v>100</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="9">
         <v>3.899</v>
       </c>
       <c r="O40" t="s">
@@ -3918,7 +3932,7 @@
       <c r="M41">
         <v>100</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="9">
         <v>3.3980000000000001</v>
       </c>
       <c r="O41" t="s">
@@ -3968,7 +3982,7 @@
       <c r="M42">
         <v>100</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="9">
         <v>12.164999999999999</v>
       </c>
       <c r="O42" t="s">
@@ -4018,7 +4032,7 @@
       <c r="M43">
         <v>100</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="9">
         <v>7</v>
       </c>
       <c r="O43" t="s">
@@ -4068,7 +4082,7 @@
       <c r="M44">
         <v>100</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="9">
         <v>3</v>
       </c>
       <c r="O44" t="s">
@@ -4118,7 +4132,7 @@
       <c r="M45">
         <v>100</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="9">
         <v>3</v>
       </c>
       <c r="O45" t="s">
@@ -4168,7 +4182,7 @@
       <c r="M46">
         <v>100</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="9">
         <v>19.396000000000001</v>
       </c>
       <c r="O46" t="s">
@@ -4218,7 +4232,7 @@
       <c r="M47">
         <v>100</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="9">
         <v>3.5</v>
       </c>
       <c r="O47" t="s">
@@ -4268,7 +4282,7 @@
       <c r="M48" s="2">
         <v>100</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="10">
         <v>2.399</v>
       </c>
       <c r="O48" t="s">
@@ -4318,7 +4332,7 @@
       <c r="M49" s="2">
         <v>100</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="10">
         <v>2.39</v>
       </c>
       <c r="O49" t="s">
@@ -4368,7 +4382,7 @@
       <c r="M50">
         <v>100</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="9">
         <v>2.5</v>
       </c>
       <c r="O50" t="s">
@@ -4418,7 +4432,7 @@
       <c r="M51">
         <v>100</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="9">
         <v>3</v>
       </c>
       <c r="O51" t="s">
@@ -4468,7 +4482,7 @@
       <c r="M52">
         <v>100</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="9">
         <v>3</v>
       </c>
       <c r="O52" t="s">
@@ -4518,7 +4532,7 @@
       <c r="M53">
         <v>100</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="9">
         <v>2.8</v>
       </c>
       <c r="O53" t="s">
@@ -4568,7 +4582,7 @@
       <c r="M54">
         <v>100</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="9">
         <v>2.4</v>
       </c>
       <c r="O54" t="s">
@@ -4618,7 +4632,7 @@
       <c r="M55">
         <v>100</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="9">
         <v>6.48</v>
       </c>
       <c r="O55" t="s">
@@ -4668,7 +4682,7 @@
       <c r="M56">
         <v>100</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="9">
         <v>7.49</v>
       </c>
       <c r="O56" t="s">
@@ -4718,7 +4732,7 @@
       <c r="M57">
         <v>100</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="9">
         <v>0.79900000000000004</v>
       </c>
       <c r="O57" t="s">
@@ -4768,7 +4782,7 @@
       <c r="M58">
         <v>100</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="9">
         <v>2.1989999999999998</v>
       </c>
       <c r="O58" t="s">
@@ -4818,7 +4832,7 @@
       <c r="M59">
         <v>100</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="9">
         <v>2.1989999999999998</v>
       </c>
       <c r="O59" t="s">
@@ -4868,7 +4882,7 @@
       <c r="M60">
         <v>100</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="9">
         <v>1.9990000000000001</v>
       </c>
       <c r="O60" t="s">
@@ -4918,7 +4932,7 @@
       <c r="M61">
         <v>100</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="9">
         <v>1.9990000000000001</v>
       </c>
       <c r="O61" t="s">
@@ -4968,7 +4982,7 @@
       <c r="M62">
         <v>100</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="9">
         <v>9.9960000000000004</v>
       </c>
       <c r="O62" t="s">
@@ -5018,7 +5032,7 @@
       <c r="M63">
         <v>100</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="9">
         <v>1.5980000000000001</v>
       </c>
       <c r="O63" t="s">
@@ -5068,7 +5082,7 @@
       <c r="M64">
         <v>100</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="9">
         <v>2.798</v>
       </c>
       <c r="O64" t="s">
@@ -5118,7 +5132,7 @@
       <c r="M65">
         <v>100</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="9">
         <v>16.324999999999999</v>
       </c>
       <c r="O65" t="s">
@@ -5168,7 +5182,7 @@
       <c r="M66">
         <v>100</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="9">
         <v>6.4950000000000001</v>
       </c>
       <c r="O66" t="s">
@@ -5218,7 +5232,7 @@
       <c r="M67">
         <v>100</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="9">
         <v>5.9930000000000003</v>
       </c>
       <c r="O67" t="s">
@@ -5268,7 +5282,7 @@
       <c r="M68">
         <v>100</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="9">
         <v>0.999</v>
       </c>
       <c r="O68" t="s">
@@ -5318,7 +5332,7 @@
       <c r="M69">
         <v>100</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N69" s="9">
         <v>6.6630000000000003</v>
       </c>
       <c r="O69" t="s">
@@ -5368,7 +5382,7 @@
       <c r="M70">
         <v>100</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70" s="9">
         <v>5.4989999999999997</v>
       </c>
       <c r="O70" t="s">
@@ -5418,7 +5432,7 @@
       <c r="M71">
         <v>100</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N71" s="9">
         <v>1.5980000000000001</v>
       </c>
       <c r="O71" t="s">
@@ -5468,7 +5482,7 @@
       <c r="M72">
         <v>100</v>
       </c>
-      <c r="N72" s="8">
+      <c r="N72" s="9">
         <v>2.3450000000000002</v>
       </c>
       <c r="O72" t="s">
@@ -5518,7 +5532,7 @@
       <c r="M73">
         <v>100</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N73" s="9">
         <v>1.895</v>
       </c>
       <c r="O73" t="s">
@@ -5568,7 +5582,7 @@
       <c r="M74">
         <v>100</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74" s="9">
         <v>0.93</v>
       </c>
       <c r="O74" t="s">
@@ -5618,7 +5632,7 @@
       <c r="M75">
         <v>100</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N75" s="9">
         <v>2.198</v>
       </c>
       <c r="O75" t="s">
@@ -5668,7 +5682,7 @@
       <c r="M76">
         <v>100</v>
       </c>
-      <c r="N76" s="8">
+      <c r="N76" s="9">
         <v>6.4950000000000001</v>
       </c>
       <c r="O76" t="s">
@@ -5718,7 +5732,7 @@
       <c r="M77">
         <v>100</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="9">
         <v>2.5270000000000001</v>
       </c>
       <c r="O77" t="s">
@@ -5768,7 +5782,7 @@
       <c r="M78">
         <v>100</v>
       </c>
-      <c r="N78" s="8">
+      <c r="N78" s="9">
         <v>3.798</v>
       </c>
       <c r="O78" t="s">
@@ -5818,7 +5832,7 @@
       <c r="M79">
         <v>100</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N79" s="9">
         <v>2.298</v>
       </c>
       <c r="O79" t="s">
@@ -5868,7 +5882,7 @@
       <c r="M80">
         <v>100</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N80" s="9">
         <v>1.9950000000000001</v>
       </c>
       <c r="O80" t="s">
@@ -5918,7 +5932,7 @@
       <c r="M81">
         <v>100</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N81" s="9">
         <v>19.975000000000001</v>
       </c>
       <c r="O81" t="s">
@@ -5968,7 +5982,7 @@
       <c r="M82">
         <v>100</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="9">
         <v>4.4390000000000001</v>
       </c>
       <c r="O82" t="s">
@@ -6018,7 +6032,7 @@
       <c r="M83">
         <v>100</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N83" s="9">
         <v>11.993</v>
       </c>
       <c r="O83" t="s">
@@ -6068,7 +6082,7 @@
       <c r="M84">
         <v>100</v>
       </c>
-      <c r="N84" s="8">
+      <c r="N84" s="9">
         <v>4.9950000000000001</v>
       </c>
       <c r="O84" t="s">
@@ -6118,7 +6132,7 @@
       <c r="M85">
         <v>100</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="9">
         <v>6.1159999999999997</v>
       </c>
       <c r="O85" t="s">
@@ -6168,7 +6182,7 @@
       <c r="M86">
         <v>100</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="9">
         <v>1.349</v>
       </c>
       <c r="O86" t="s">
@@ -6218,7 +6232,7 @@
       <c r="M87">
         <v>100</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N87" s="9">
         <v>3.4950000000000001</v>
       </c>
       <c r="O87" t="s">
@@ -6268,7 +6282,7 @@
       <c r="M88">
         <v>100</v>
       </c>
-      <c r="N88" s="8">
+      <c r="N88" s="9">
         <v>4.4279999999999999</v>
       </c>
       <c r="O88" t="s">
@@ -6318,7 +6332,7 @@
       <c r="M89">
         <v>100</v>
       </c>
-      <c r="N89" s="8">
+      <c r="N89" s="9">
         <v>3.5680000000000001</v>
       </c>
       <c r="O89" t="s">
@@ -6368,7 +6382,7 @@
       <c r="M90">
         <v>100</v>
       </c>
-      <c r="N90" s="8">
+      <c r="N90" s="9">
         <v>1.7989999999999999</v>
       </c>
       <c r="O90" t="s">
@@ -6418,7 +6432,7 @@
       <c r="M91">
         <v>100</v>
       </c>
-      <c r="N91" s="8">
+      <c r="N91" s="9">
         <v>0.69899999999999995</v>
       </c>
       <c r="O91" t="s">
@@ -6468,7 +6482,7 @@
       <c r="M92">
         <v>100</v>
       </c>
-      <c r="N92" s="8">
+      <c r="N92" s="9">
         <v>0.499</v>
       </c>
       <c r="O92" t="s">
@@ -6518,7 +6532,7 @@
       <c r="M93">
         <v>100</v>
       </c>
-      <c r="N93" s="8">
+      <c r="N93" s="9">
         <v>3.9889999999999999</v>
       </c>
       <c r="O93" t="s">
@@ -6568,7 +6582,7 @@
       <c r="M94">
         <v>100</v>
       </c>
-      <c r="N94" s="8">
+      <c r="N94" s="9">
         <v>3.9990000000000001</v>
       </c>
       <c r="O94" t="s">
@@ -6618,7 +6632,7 @@
       <c r="M95">
         <v>100</v>
       </c>
-      <c r="N95" s="8">
+      <c r="N95" s="9">
         <v>0.39960000000000001</v>
       </c>
       <c r="O95" t="s">
@@ -6668,7 +6682,7 @@
       <c r="M96">
         <v>100</v>
       </c>
-      <c r="N96" s="8">
+      <c r="N96" s="9">
         <v>1.518</v>
       </c>
       <c r="O96" t="s">
@@ -6718,7 +6732,7 @@
       <c r="M97">
         <v>100</v>
       </c>
-      <c r="N97" s="8">
+      <c r="N97" s="9">
         <v>6.45</v>
       </c>
       <c r="O97" t="s">
@@ -6768,7 +6782,7 @@
       <c r="M98">
         <v>100</v>
       </c>
-      <c r="N98" s="8">
+      <c r="N98" s="9">
         <v>9.99</v>
       </c>
       <c r="O98" t="s">
@@ -6818,7 +6832,7 @@
       <c r="M99">
         <v>100</v>
       </c>
-      <c r="N99" s="8">
+      <c r="N99" s="9">
         <v>3.7480000000000002</v>
       </c>
       <c r="O99" t="s">
@@ -6868,7 +6882,7 @@
       <c r="M100">
         <v>100</v>
       </c>
-      <c r="N100" s="8">
+      <c r="N100" s="9">
         <v>3.9969999999999999</v>
       </c>
       <c r="O100" t="s">
@@ -6918,7 +6932,7 @@
       <c r="M101">
         <v>100</v>
       </c>
-      <c r="N101" s="8">
+      <c r="N101" s="9">
         <v>1.899</v>
       </c>
       <c r="O101" t="s">
@@ -6968,7 +6982,7 @@
       <c r="M102">
         <v>100</v>
       </c>
-      <c r="N102" s="8">
+      <c r="N102" s="9">
         <v>0.29899999999999999</v>
       </c>
       <c r="O102" t="s">
@@ -7018,7 +7032,7 @@
       <c r="M103">
         <v>100</v>
       </c>
-      <c r="N103" s="8">
+      <c r="N103" s="9">
         <v>0.4</v>
       </c>
       <c r="O103" t="s">
@@ -7068,7 +7082,7 @@
       <c r="M104">
         <v>100</v>
       </c>
-      <c r="N104" s="8">
+      <c r="N104" s="9">
         <v>0.4</v>
       </c>
       <c r="O104" t="s">
@@ -7118,7 +7132,7 @@
       <c r="M105">
         <v>100</v>
       </c>
-      <c r="N105" s="8">
+      <c r="N105" s="9">
         <v>0.39900000000000002</v>
       </c>
       <c r="O105" t="s">
@@ -7168,7 +7182,7 @@
       <c r="M106">
         <v>100</v>
       </c>
-      <c r="N106" s="8">
+      <c r="N106" s="9">
         <v>0.69899999999999995</v>
       </c>
       <c r="O106" t="s">
@@ -7218,7 +7232,7 @@
       <c r="M107">
         <v>100</v>
       </c>
-      <c r="N107" s="8">
+      <c r="N107" s="9">
         <v>2.3980000000000001</v>
       </c>
       <c r="O107" t="s">
@@ -7268,7 +7282,7 @@
       <c r="M108">
         <v>100</v>
       </c>
-      <c r="N108" s="8">
+      <c r="N108" s="9">
         <v>1.4990000000000001</v>
       </c>
       <c r="O108" t="s">
@@ -7318,7 +7332,7 @@
       <c r="M109">
         <v>100</v>
       </c>
-      <c r="N109" s="8">
+      <c r="N109" s="9">
         <v>2.4420000000000002</v>
       </c>
       <c r="O109" t="s">
@@ -7368,7 +7382,7 @@
       <c r="M110">
         <v>100</v>
       </c>
-      <c r="N110" s="8">
+      <c r="N110" s="9">
         <v>2.2290000000000001</v>
       </c>
       <c r="O110" t="s">
@@ -7418,10 +7432,10 @@
       <c r="M111">
         <v>100</v>
       </c>
-      <c r="N111" s="8">
+      <c r="N111" s="9">
         <v>0.99</v>
       </c>
-      <c r="O111" s="10" t="s">
+      <c r="O111" s="7" t="s">
         <v>103</v>
       </c>
       <c r="P111" s="5" t="s">
@@ -7468,7 +7482,7 @@
       <c r="M112">
         <v>100</v>
       </c>
-      <c r="N112" s="8">
+      <c r="N112" s="9">
         <v>0.99</v>
       </c>
       <c r="O112" t="s">
@@ -7518,7 +7532,7 @@
       <c r="M113">
         <v>100</v>
       </c>
-      <c r="N113" s="8">
+      <c r="N113" s="9">
         <v>0.99</v>
       </c>
       <c r="O113" t="s">
@@ -7568,7 +7582,7 @@
       <c r="M114">
         <v>100</v>
       </c>
-      <c r="N114" s="8">
+      <c r="N114" s="9">
         <v>10.66</v>
       </c>
       <c r="O114" t="s">
@@ -7618,7 +7632,7 @@
       <c r="M115">
         <v>100</v>
       </c>
-      <c r="N115" s="8">
+      <c r="N115" s="9">
         <v>2.1989999999999998</v>
       </c>
       <c r="O115" t="s">
@@ -7668,7 +7682,7 @@
       <c r="M116">
         <v>100</v>
       </c>
-      <c r="N116" s="8">
+      <c r="N116" s="9">
         <v>9.1839999999999993</v>
       </c>
       <c r="O116" t="s">
@@ -7718,7 +7732,7 @@
       <c r="M117">
         <v>100</v>
       </c>
-      <c r="N117" s="8">
+      <c r="N117" s="9">
         <v>0.59899999999999998</v>
       </c>
       <c r="O117" t="s">
@@ -7768,7 +7782,7 @@
       <c r="M118">
         <v>100</v>
       </c>
-      <c r="N118" s="8">
+      <c r="N118" s="9">
         <v>1.9990000000000001</v>
       </c>
       <c r="O118" t="s">
@@ -7818,7 +7832,7 @@
       <c r="M119">
         <v>100</v>
       </c>
-      <c r="N119" s="8">
+      <c r="N119" s="9">
         <v>1.998</v>
       </c>
       <c r="O119" t="s">
@@ -7868,7 +7882,7 @@
       <c r="M120">
         <v>100</v>
       </c>
-      <c r="N120" s="8">
+      <c r="N120" s="9">
         <v>0.79900000000000004</v>
       </c>
       <c r="O120" t="s">
@@ -7918,7 +7932,7 @@
       <c r="M121">
         <v>100</v>
       </c>
-      <c r="N121" s="8">
+      <c r="N121" s="9">
         <v>2.399</v>
       </c>
       <c r="O121" t="s">
@@ -7968,7 +7982,7 @@
       <c r="M122">
         <v>100</v>
       </c>
-      <c r="N122" s="8">
+      <c r="N122" s="9">
         <v>3.9969999999999999</v>
       </c>
       <c r="O122" t="s">
@@ -8018,7 +8032,7 @@
       <c r="M123">
         <v>100</v>
       </c>
-      <c r="N123" s="8">
+      <c r="N123" s="9">
         <v>2.9980000000000002</v>
       </c>
       <c r="O123" t="s">
@@ -8068,7 +8082,7 @@
       <c r="M124">
         <v>100</v>
       </c>
-      <c r="N124" s="8">
+      <c r="N124" s="9">
         <v>4</v>
       </c>
       <c r="O124" t="s">
@@ -8118,7 +8132,7 @@
       <c r="M125">
         <v>100</v>
       </c>
-      <c r="N125" s="8">
+      <c r="N125" s="9">
         <v>2.78</v>
       </c>
       <c r="O125" t="s">
@@ -8168,7 +8182,7 @@
       <c r="M126">
         <v>100</v>
       </c>
-      <c r="N126" s="8">
+      <c r="N126" s="9">
         <v>2.5</v>
       </c>
       <c r="O126" t="s">
@@ -8218,7 +8232,7 @@
       <c r="M127">
         <v>100</v>
       </c>
-      <c r="N127" s="8">
+      <c r="N127" s="9">
         <v>1.6990000000000001</v>
       </c>
       <c r="O127" t="s">
@@ -8268,7 +8282,7 @@
       <c r="M128">
         <v>100</v>
       </c>
-      <c r="N128" s="8">
+      <c r="N128" s="9">
         <v>2.4990000000000001</v>
       </c>
       <c r="O128" t="s">
@@ -8318,7 +8332,7 @@
       <c r="M129">
         <v>100</v>
       </c>
-      <c r="N129" s="8">
+      <c r="N129" s="9">
         <v>5.9980000000000002</v>
       </c>
       <c r="O129" t="s">
@@ -8368,7 +8382,7 @@
       <c r="M130">
         <v>100</v>
       </c>
-      <c r="N130" s="8">
+      <c r="N130" s="9">
         <v>2.5990000000000002</v>
       </c>
       <c r="O130" t="s">
@@ -8418,7 +8432,7 @@
       <c r="M131">
         <v>100</v>
       </c>
-      <c r="N131" s="8">
+      <c r="N131" s="9">
         <v>0.999</v>
       </c>
       <c r="O131" t="s">
@@ -8468,7 +8482,7 @@
       <c r="M132">
         <v>100</v>
       </c>
-      <c r="N132" s="8">
+      <c r="N132" s="9">
         <v>11.327</v>
       </c>
       <c r="O132" t="s">
@@ -8518,7 +8532,7 @@
       <c r="M133">
         <v>100</v>
       </c>
-      <c r="N133" s="8">
+      <c r="N133" s="9">
         <v>2.5979999999999999</v>
       </c>
       <c r="O133" t="s">
@@ -8568,7 +8582,7 @@
       <c r="M134">
         <v>100</v>
       </c>
-      <c r="N134" s="8">
+      <c r="N134" s="9">
         <v>2.198</v>
       </c>
       <c r="O134" t="s">
@@ -8618,7 +8632,7 @@
       <c r="M135">
         <v>100</v>
       </c>
-      <c r="N135" s="8">
+      <c r="N135" s="9">
         <v>1.3979999999999999</v>
       </c>
       <c r="O135" t="s">
@@ -8668,7 +8682,7 @@
       <c r="M136">
         <v>100</v>
       </c>
-      <c r="N136" s="8">
+      <c r="N136" s="9">
         <v>2.3980000000000001</v>
       </c>
       <c r="O136" t="s">
@@ -8718,7 +8732,7 @@
       <c r="M137">
         <v>100</v>
       </c>
-      <c r="N137" s="8">
+      <c r="N137" s="9">
         <v>2.3279999999999998</v>
       </c>
       <c r="O137" t="s">
@@ -8768,7 +8782,7 @@
       <c r="M138">
         <v>100</v>
       </c>
-      <c r="N138" s="8">
+      <c r="N138" s="9">
         <v>3.4980000000000002</v>
       </c>
       <c r="O138" t="s">
@@ -8818,7 +8832,7 @@
       <c r="M139">
         <v>100</v>
       </c>
-      <c r="N139" s="8">
+      <c r="N139" s="9">
         <v>11.45</v>
       </c>
       <c r="O139" t="s">
@@ -8868,7 +8882,7 @@
       <c r="M140">
         <v>100</v>
       </c>
-      <c r="N140" s="8">
+      <c r="N140" s="9">
         <v>6.5</v>
       </c>
       <c r="O140" t="s">
@@ -8918,7 +8932,7 @@
       <c r="M141">
         <v>100</v>
       </c>
-      <c r="N141" s="8">
+      <c r="N141" s="9">
         <v>2.37</v>
       </c>
       <c r="O141" t="s">
@@ -8968,7 +8982,7 @@
       <c r="M142">
         <v>100</v>
       </c>
-      <c r="N142" s="8">
+      <c r="N142" s="9">
         <v>2.198</v>
       </c>
       <c r="O142" t="s">
@@ -9018,7 +9032,7 @@
       <c r="M143">
         <v>100</v>
       </c>
-      <c r="N143" s="8">
+      <c r="N143" s="9">
         <v>4.4400000000000004</v>
       </c>
       <c r="O143" t="s">
@@ -9068,7 +9082,7 @@
       <c r="M144">
         <v>100</v>
       </c>
-      <c r="N144" s="8">
+      <c r="N144" s="9">
         <v>3.4260000000000002</v>
       </c>
       <c r="O144" t="s">
@@ -9118,7 +9132,7 @@
       <c r="M145">
         <v>100</v>
       </c>
-      <c r="N145" s="8">
+      <c r="N145" s="9">
         <v>2.5979999999999999</v>
       </c>
       <c r="O145" t="s">
@@ -9168,7 +9182,7 @@
       <c r="M146">
         <v>100</v>
       </c>
-      <c r="N146" s="8">
+      <c r="N146" s="9">
         <v>4.3</v>
       </c>
       <c r="O146" t="s">
@@ -9218,7 +9232,7 @@
       <c r="M147">
         <v>100</v>
       </c>
-      <c r="N147" s="8">
+      <c r="N147" s="9">
         <v>1.198</v>
       </c>
       <c r="O147" t="s">
@@ -9268,7 +9282,7 @@
       <c r="M148">
         <v>100</v>
       </c>
-      <c r="N148" s="8">
+      <c r="N148" s="9">
         <v>3.4260000000000002</v>
       </c>
       <c r="O148" t="s">
@@ -9318,7 +9332,7 @@
       <c r="M149">
         <v>100</v>
       </c>
-      <c r="N149" s="8">
+      <c r="N149" s="9">
         <v>4.38</v>
       </c>
       <c r="O149" t="s">
@@ -9368,7 +9382,7 @@
       <c r="M150">
         <v>100</v>
       </c>
-      <c r="N150" s="8">
+      <c r="N150" s="9">
         <v>9.9700000000000006</v>
       </c>
       <c r="O150" t="s">
@@ -9418,7 +9432,7 @@
       <c r="M151">
         <v>100</v>
       </c>
-      <c r="N151" s="8">
+      <c r="N151" s="9">
         <v>2.5979999999999999</v>
       </c>
       <c r="O151" t="s">
@@ -9468,7 +9482,7 @@
       <c r="M152">
         <v>100</v>
       </c>
-      <c r="N152" s="8">
+      <c r="N152" s="9">
         <v>1.5980000000000001</v>
       </c>
       <c r="O152" t="s">
@@ -9518,7 +9532,7 @@
       <c r="M153">
         <v>100</v>
       </c>
-      <c r="N153" s="8">
+      <c r="N153" s="9">
         <v>7.9930000000000003</v>
       </c>
       <c r="O153" t="s">
@@ -9568,7 +9582,7 @@
       <c r="M154">
         <v>100</v>
       </c>
-      <c r="N154" s="8">
+      <c r="N154" s="9">
         <v>1.1240000000000001</v>
       </c>
       <c r="O154" t="s">
@@ -9618,7 +9632,7 @@
       <c r="M155">
         <v>100</v>
       </c>
-      <c r="N155" s="8">
+      <c r="N155" s="9">
         <v>2.99</v>
       </c>
       <c r="O155" t="s">
@@ -9668,7 +9682,7 @@
       <c r="M156">
         <v>100</v>
       </c>
-      <c r="N156" s="8">
+      <c r="N156" s="9">
         <v>2.5979999999999999</v>
       </c>
       <c r="O156" t="s">
@@ -9718,7 +9732,7 @@
       <c r="M157">
         <v>100</v>
       </c>
-      <c r="N157" s="8">
+      <c r="N157" s="9">
         <v>1.4990000000000001</v>
       </c>
       <c r="O157" t="s">
@@ -9768,7 +9782,7 @@
       <c r="M158">
         <v>100</v>
       </c>
-      <c r="N158" s="8">
+      <c r="N158" s="9">
         <v>4.9950000000000001</v>
       </c>
       <c r="O158" t="s">
@@ -9818,7 +9832,7 @@
       <c r="M159">
         <v>100</v>
       </c>
-      <c r="N159" s="8">
+      <c r="N159" s="9">
         <v>0.999</v>
       </c>
       <c r="O159" t="s">
@@ -9868,7 +9882,7 @@
       <c r="M160">
         <v>100</v>
       </c>
-      <c r="N160" s="8">
+      <c r="N160" s="9">
         <v>10.391999999999999</v>
       </c>
       <c r="O160" t="s">
@@ -9918,7 +9932,7 @@
       <c r="M161">
         <v>100</v>
       </c>
-      <c r="N161" s="8">
+      <c r="N161" s="9">
         <v>0.79900000000000004</v>
       </c>
       <c r="O161" t="s">
@@ -9968,7 +9982,7 @@
       <c r="M162">
         <v>100</v>
       </c>
-      <c r="N162" s="8">
+      <c r="N162" s="9">
         <v>5.9980000000000002</v>
       </c>
       <c r="O162" t="s">
@@ -10018,7 +10032,7 @@
       <c r="M163">
         <v>100</v>
       </c>
-      <c r="N163" s="8">
+      <c r="N163" s="9">
         <v>3.3180000000000001</v>
       </c>
       <c r="O163" t="s">
@@ -10068,7 +10082,7 @@
       <c r="M164">
         <v>100</v>
       </c>
-      <c r="N164" s="8">
+      <c r="N164" s="9">
         <v>1.6990000000000001</v>
       </c>
       <c r="O164" t="s">
@@ -10118,7 +10132,7 @@
       <c r="M165">
         <v>100</v>
       </c>
-      <c r="N165" s="8">
+      <c r="N165" s="9">
         <v>0.3</v>
       </c>
       <c r="O165" t="s">
@@ -10168,7 +10182,7 @@
       <c r="M166">
         <v>100</v>
       </c>
-      <c r="N166" s="8">
+      <c r="N166" s="9">
         <v>0.69899999999999995</v>
       </c>
       <c r="O166" t="s">
@@ -10218,7 +10232,7 @@
       <c r="M167">
         <v>100</v>
       </c>
-      <c r="N167" s="8">
+      <c r="N167" s="9">
         <v>3</v>
       </c>
       <c r="O167" t="s">
@@ -10268,7 +10282,7 @@
       <c r="M168">
         <v>100</v>
       </c>
-      <c r="N168" s="8">
+      <c r="N168" s="9">
         <v>1.2</v>
       </c>
       <c r="O168" t="s">
@@ -10318,7 +10332,7 @@
       <c r="M169">
         <v>100</v>
       </c>
-      <c r="N169" s="8">
+      <c r="N169" s="9">
         <v>1.9990000000000001</v>
       </c>
       <c r="O169" t="s">
@@ -10368,7 +10382,7 @@
       <c r="M170">
         <v>100</v>
       </c>
-      <c r="N170" s="8">
+      <c r="N170" s="9">
         <v>1.099</v>
       </c>
       <c r="O170" t="s">
@@ -10418,7 +10432,7 @@
       <c r="M171">
         <v>100</v>
       </c>
-      <c r="N171" s="8">
+      <c r="N171" s="9">
         <v>8.99</v>
       </c>
       <c r="O171" t="s">
@@ -10468,7 +10482,7 @@
       <c r="M172">
         <v>100</v>
       </c>
-      <c r="N172" s="8">
+      <c r="N172" s="9">
         <v>1.4990000000000001</v>
       </c>
       <c r="O172" t="s">
@@ -10518,7 +10532,7 @@
       <c r="M173">
         <v>100</v>
       </c>
-      <c r="N173" s="8">
+      <c r="N173" s="9">
         <v>2.7</v>
       </c>
       <c r="O173" t="s">
@@ -10568,7 +10582,7 @@
       <c r="M174">
         <v>100</v>
       </c>
-      <c r="N174" s="8">
+      <c r="N174" s="9">
         <v>1.9990000000000001</v>
       </c>
       <c r="O174" t="s">
@@ -10618,7 +10632,7 @@
       <c r="M175">
         <v>100</v>
       </c>
-      <c r="N175" s="8">
+      <c r="N175" s="9">
         <v>1.2989999999999999</v>
       </c>
       <c r="O175" t="s">
@@ -10668,7 +10682,7 @@
       <c r="M176">
         <v>100</v>
       </c>
-      <c r="N176" s="8">
+      <c r="N176" s="9">
         <v>0.29899999999999999</v>
       </c>
       <c r="O176" t="s">
@@ -10718,7 +10732,7 @@
       <c r="M177">
         <v>100</v>
       </c>
-      <c r="N177" s="8">
+      <c r="N177" s="9">
         <v>2.9990000000000001</v>
       </c>
       <c r="O177" t="s">
@@ -10768,7 +10782,7 @@
       <c r="M178">
         <v>100</v>
       </c>
-      <c r="N178" s="8">
+      <c r="N178" s="9">
         <v>0.79900000000000004</v>
       </c>
       <c r="O178" t="s">
@@ -10818,7 +10832,7 @@
       <c r="M179">
         <v>100</v>
       </c>
-      <c r="N179" s="8">
+      <c r="N179" s="9">
         <v>2.7959999999999998</v>
       </c>
       <c r="O179" t="s">
@@ -10868,7 +10882,7 @@
       <c r="M180">
         <v>100</v>
       </c>
-      <c r="N180" s="8">
+      <c r="N180" s="9">
         <v>1.099</v>
       </c>
       <c r="O180" t="s">
@@ -10918,7 +10932,7 @@
       <c r="M181">
         <v>100</v>
       </c>
-      <c r="N181" s="8">
+      <c r="N181" s="9">
         <v>0.999</v>
       </c>
       <c r="O181" t="s">
@@ -10968,7 +10982,7 @@
       <c r="M182">
         <v>100</v>
       </c>
-      <c r="N182" s="8">
+      <c r="N182" s="9">
         <v>1.7</v>
       </c>
       <c r="O182" t="s">
@@ -11018,7 +11032,7 @@
       <c r="M183">
         <v>100</v>
       </c>
-      <c r="N183" s="8">
+      <c r="N183" s="9">
         <v>3</v>
       </c>
       <c r="O183" t="s">
@@ -11068,7 +11082,7 @@
       <c r="M184">
         <v>100</v>
       </c>
-      <c r="N184" s="8">
+      <c r="N184" s="9">
         <v>0.3</v>
       </c>
       <c r="O184" t="s">
@@ -11118,7 +11132,7 @@
       <c r="M185">
         <v>100</v>
       </c>
-      <c r="N185" s="8">
+      <c r="N185" s="9">
         <v>4.9950000000000001</v>
       </c>
       <c r="O185" t="s">
@@ -11168,7 +11182,7 @@
       <c r="M186">
         <v>100</v>
       </c>
-      <c r="N186" s="8">
+      <c r="N186" s="9">
         <v>3</v>
       </c>
       <c r="O186" t="s">
@@ -11218,7 +11232,7 @@
       <c r="M187">
         <v>100</v>
       </c>
-      <c r="N187" s="8">
+      <c r="N187" s="9">
         <v>5.33</v>
       </c>
       <c r="O187" t="s">
@@ -11268,7 +11282,7 @@
       <c r="M188">
         <v>100</v>
       </c>
-      <c r="N188" s="8">
+      <c r="N188" s="9">
         <v>2.5</v>
       </c>
       <c r="O188" t="s">
@@ -11318,7 +11332,7 @@
       <c r="M189">
         <v>100</v>
       </c>
-      <c r="N189" s="8">
+      <c r="N189" s="9">
         <v>3.7759999999999998</v>
       </c>
       <c r="O189" t="s">
@@ -11368,7 +11382,7 @@
       <c r="M190">
         <v>100</v>
       </c>
-      <c r="N190" s="8">
+      <c r="N190" s="9">
         <v>1.9</v>
       </c>
       <c r="O190" t="s">
@@ -11418,7 +11432,7 @@
       <c r="M191">
         <v>100</v>
       </c>
-      <c r="N191" s="8">
+      <c r="N191" s="9">
         <v>7</v>
       </c>
       <c r="O191" t="s">
@@ -11468,7 +11482,7 @@
       <c r="M192">
         <v>100</v>
       </c>
-      <c r="N192" s="8">
+      <c r="N192" s="9">
         <v>7.8</v>
       </c>
       <c r="O192" t="s">
@@ -11518,7 +11532,7 @@
       <c r="M193">
         <v>100</v>
       </c>
-      <c r="N193" s="8">
+      <c r="N193" s="9">
         <v>5.45</v>
       </c>
       <c r="O193" t="s">
@@ -11568,7 +11582,7 @@
       <c r="M194">
         <v>100</v>
       </c>
-      <c r="N194" s="8">
+      <c r="N194" s="9">
         <v>11.997</v>
       </c>
       <c r="O194" t="s">
@@ -11618,7 +11632,7 @@
       <c r="M195">
         <v>100</v>
       </c>
-      <c r="N195" s="8">
+      <c r="N195" s="9">
         <v>5.4989999999999997</v>
       </c>
       <c r="O195" t="s">
@@ -11668,7 +11682,7 @@
       <c r="M196">
         <v>100</v>
       </c>
-      <c r="N196" s="8">
+      <c r="N196" s="9">
         <v>13.196</v>
       </c>
       <c r="O196" t="s">
@@ -11718,7 +11732,7 @@
       <c r="M197">
         <v>100</v>
       </c>
-      <c r="N197" s="8">
+      <c r="N197" s="9">
         <v>8.9879999999999995</v>
       </c>
       <c r="O197" t="s">
@@ -11768,7 +11782,7 @@
       <c r="M198">
         <v>100</v>
       </c>
-      <c r="N198" s="8">
+      <c r="N198" s="9">
         <v>5.59</v>
       </c>
       <c r="O198" t="s">
@@ -11818,7 +11832,7 @@
       <c r="M199">
         <v>100</v>
       </c>
-      <c r="N199" s="8">
+      <c r="N199" s="9">
         <v>3.996</v>
       </c>
       <c r="O199" t="s">
@@ -11868,7 +11882,7 @@
       <c r="M200">
         <v>100</v>
       </c>
-      <c r="N200" s="8">
+      <c r="N200" s="9">
         <v>3.7269999999999999</v>
       </c>
       <c r="O200" t="s">
@@ -11918,7 +11932,7 @@
       <c r="M201">
         <v>100</v>
       </c>
-      <c r="N201" s="8">
+      <c r="N201" s="9">
         <v>2.7930000000000001</v>
       </c>
       <c r="O201" t="s">
@@ -11968,7 +11982,7 @@
       <c r="M202">
         <v>100</v>
       </c>
-      <c r="N202" s="8">
+      <c r="N202" s="9">
         <v>5.99</v>
       </c>
       <c r="O202" t="s">
@@ -12018,7 +12032,7 @@
       <c r="M203">
         <v>100</v>
       </c>
-      <c r="N203" s="8">
+      <c r="N203" s="9">
         <v>4.6230000000000002</v>
       </c>
       <c r="O203" t="s">
@@ -12068,7 +12082,7 @@
       <c r="M204">
         <v>100</v>
       </c>
-      <c r="N204" s="8">
+      <c r="N204" s="9">
         <v>6.99</v>
       </c>
       <c r="O204" t="s">
@@ -12118,7 +12132,7 @@
       <c r="M205">
         <v>100</v>
       </c>
-      <c r="N205" s="8">
+      <c r="N205" s="9">
         <v>8.99</v>
       </c>
       <c r="O205" t="s">
@@ -12168,7 +12182,7 @@
       <c r="M206">
         <v>100</v>
       </c>
-      <c r="N206" s="8">
+      <c r="N206" s="9">
         <v>12.488</v>
       </c>
       <c r="O206" t="s">
@@ -12218,7 +12232,7 @@
       <c r="M207">
         <v>100</v>
       </c>
-      <c r="N207" s="8">
+      <c r="N207" s="9">
         <v>7.99</v>
       </c>
       <c r="O207" t="s">
@@ -12268,7 +12282,7 @@
       <c r="M208">
         <v>100</v>
       </c>
-      <c r="N208" s="8">
+      <c r="N208" s="9">
         <v>4.66</v>
       </c>
       <c r="O208" t="s">
@@ -12318,7 +12332,7 @@
       <c r="M209">
         <v>100</v>
       </c>
-      <c r="N209" s="8">
+      <c r="N209" s="9">
         <v>21.99</v>
       </c>
       <c r="O209" t="s">
@@ -12368,7 +12382,7 @@
       <c r="M210">
         <v>100</v>
       </c>
-      <c r="N210" s="8">
+      <c r="N210" s="9">
         <v>6.99</v>
       </c>
       <c r="O210" t="s">
@@ -12418,7 +12432,7 @@
       <c r="M211">
         <v>100</v>
       </c>
-      <c r="N211" s="8">
+      <c r="N211" s="9">
         <v>6.1230000000000002</v>
       </c>
       <c r="O211" t="s">
@@ -12468,7 +12482,7 @@
       <c r="M212">
         <v>100</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="9">
         <v>5</v>
       </c>
       <c r="O212" t="s">
@@ -12518,7 +12532,7 @@
       <c r="M213">
         <v>100</v>
       </c>
-      <c r="N213" s="8">
+      <c r="N213" s="9">
         <v>6.4980000000000002</v>
       </c>
       <c r="O213" t="s">
@@ -12568,7 +12582,7 @@
       <c r="M214">
         <v>100</v>
       </c>
-      <c r="N214" s="8">
+      <c r="N214" s="9">
         <v>32.829000000000001</v>
       </c>
       <c r="O214" t="s">
@@ -12618,7 +12632,7 @@
       <c r="M215">
         <v>100</v>
       </c>
-      <c r="N215" s="8">
+      <c r="N215" s="9">
         <v>6.66</v>
       </c>
       <c r="O215" t="s">
@@ -12668,7 +12682,7 @@
       <c r="M216">
         <v>100</v>
       </c>
-      <c r="N216" s="8">
+      <c r="N216" s="9">
         <v>17.515000000000001</v>
       </c>
       <c r="O216" t="s">
@@ -12718,7 +12732,7 @@
       <c r="M217">
         <v>100</v>
       </c>
-      <c r="N217" s="8">
+      <c r="N217" s="9">
         <v>5.6779999999999999</v>
       </c>
       <c r="O217" t="s">
@@ -12768,7 +12782,7 @@
       <c r="M218">
         <v>100</v>
       </c>
-      <c r="N218" s="8">
+      <c r="N218" s="9">
         <v>7.4950000000000001</v>
       </c>
       <c r="O218" t="s">
@@ -12818,7 +12832,7 @@
       <c r="M219">
         <v>100</v>
       </c>
-      <c r="N219" s="8">
+      <c r="N219" s="9">
         <v>3.3319999999999999</v>
       </c>
       <c r="O219" t="s">
@@ -12868,7 +12882,7 @@
       <c r="M220">
         <v>100</v>
       </c>
-      <c r="N220" s="8">
+      <c r="N220" s="9">
         <v>3.9969999999999999</v>
       </c>
       <c r="O220" t="s">
@@ -12918,7 +12932,7 @@
       <c r="M221">
         <v>100</v>
       </c>
-      <c r="N221" s="8">
+      <c r="N221" s="9">
         <v>3.99</v>
       </c>
       <c r="O221" t="s">
@@ -12968,7 +12982,7 @@
       <c r="M222">
         <v>100</v>
       </c>
-      <c r="N222" s="8">
+      <c r="N222" s="9">
         <v>3.032</v>
       </c>
       <c r="O222" t="s">
@@ -13018,7 +13032,7 @@
       <c r="M223">
         <v>100</v>
       </c>
-      <c r="N223" s="8">
+      <c r="N223" s="9">
         <v>2.7770000000000001</v>
       </c>
       <c r="O223" t="s">
@@ -13068,7 +13082,7 @@
       <c r="M224">
         <v>100</v>
       </c>
-      <c r="N224" s="8">
+      <c r="N224" s="9">
         <v>7.5960000000000001</v>
       </c>
       <c r="O224" t="s">
@@ -13118,7 +13132,7 @@
       <c r="M225">
         <v>100</v>
       </c>
-      <c r="N225" s="8">
+      <c r="N225" s="9">
         <v>1.95</v>
       </c>
       <c r="O225" t="s">
@@ -13168,7 +13182,7 @@
       <c r="M226">
         <v>100</v>
       </c>
-      <c r="N226" s="8">
+      <c r="N226" s="9">
         <v>7.85</v>
       </c>
       <c r="O226" t="s">
